--- a/src/ontology/Ontorat proc/Ability_types.xlsx
+++ b/src/ontology/Ontorat proc/Ability_types.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongqunh\GitHub\OccO\src\ontology\Ontobee proc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongqunh\GitHub\OccO\src\ontology\Ontorat proc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D14DBD2-0B3A-486A-8114-2BB53611CF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C8E4EE-9369-410C-AA10-E095F1416069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86E5E9BD-A1B7-40C9-8878-1FAE457BC9E6}"/>
+    <workbookView xWindow="33510" yWindow="900" windowWidth="19455" windowHeight="13875" xr2:uid="{86E5E9BD-A1B7-40C9-8878-1FAE457BC9E6}"/>
   </bookViews>
   <sheets>
     <sheet name="AbilityTypes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="220">
   <si>
     <t>Ability Label</t>
   </si>
@@ -681,6 +681,18 @@
   </si>
   <si>
     <t>Sam Smith, Oliver He</t>
+  </si>
+  <si>
+    <t>OccO ability</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>OccO_00000004</t>
+  </si>
+  <si>
+    <t>OccO ability ID</t>
   </si>
 </sst>
 </file>
@@ -1041,23 +1053,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F0998B-1DEA-453B-B7C7-6017678B3DAD}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="89.85546875" customWidth="1"/>
-    <col min="5" max="5" width="71.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="89.85546875" customWidth="1"/>
+    <col min="7" max="7" width="71.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,19 +1079,25 @@
         <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -1085,19 +1105,25 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -1105,19 +1131,25 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -1125,19 +1157,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -1145,19 +1183,25 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1165,19 +1209,25 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -1185,19 +1235,25 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -1205,19 +1261,25 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -1225,19 +1287,25 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -1245,19 +1313,25 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>171</v>
       </c>
@@ -1265,19 +1339,25 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -1285,19 +1365,25 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -1305,19 +1391,25 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>174</v>
       </c>
@@ -1325,19 +1417,25 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -1345,19 +1443,25 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -1365,19 +1469,25 @@
         <v>47</v>
       </c>
       <c r="C16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>177</v>
       </c>
@@ -1385,19 +1495,25 @@
         <v>50</v>
       </c>
       <c r="C17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>178</v>
       </c>
@@ -1405,19 +1521,25 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>55</v>
       </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>179</v>
       </c>
@@ -1425,19 +1547,25 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>180</v>
       </c>
@@ -1445,19 +1573,25 @@
         <v>59</v>
       </c>
       <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -1465,19 +1599,25 @@
         <v>62</v>
       </c>
       <c r="C21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>64</v>
       </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -1485,19 +1625,25 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
         <v>66</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>67</v>
       </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -1505,19 +1651,25 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" t="s">
         <v>69</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -1525,19 +1677,25 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>73</v>
       </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -1545,19 +1703,25 @@
         <v>74</v>
       </c>
       <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" t="s">
         <v>75</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>76</v>
       </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -1565,19 +1729,25 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" t="s">
         <v>78</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>79</v>
       </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>187</v>
       </c>
@@ -1585,19 +1755,25 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" t="s">
         <v>81</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>82</v>
       </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -1605,19 +1781,25 @@
         <v>83</v>
       </c>
       <c r="C28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" t="s">
         <v>84</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>85</v>
       </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>189</v>
       </c>
@@ -1625,19 +1807,25 @@
         <v>86</v>
       </c>
       <c r="C29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" t="s">
         <v>87</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>88</v>
       </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>190</v>
       </c>
@@ -1645,19 +1833,25 @@
         <v>89</v>
       </c>
       <c r="C30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" t="s">
         <v>90</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>91</v>
       </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -1665,19 +1859,25 @@
         <v>92</v>
       </c>
       <c r="C31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" t="s">
         <v>93</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>94</v>
       </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -1685,19 +1885,25 @@
         <v>95</v>
       </c>
       <c r="C32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" t="s">
         <v>96</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>97</v>
       </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>193</v>
       </c>
@@ -1705,19 +1911,25 @@
         <v>98</v>
       </c>
       <c r="C33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" t="s">
         <v>99</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>100</v>
       </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>194</v>
       </c>
@@ -1725,19 +1937,25 @@
         <v>101</v>
       </c>
       <c r="C34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" t="s">
         <v>102</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>103</v>
       </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>195</v>
       </c>
@@ -1745,19 +1963,25 @@
         <v>104</v>
       </c>
       <c r="C35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" t="s">
         <v>105</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>106</v>
       </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>196</v>
       </c>
@@ -1765,19 +1989,25 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" t="s">
         <v>108</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>109</v>
       </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -1785,19 +2015,25 @@
         <v>110</v>
       </c>
       <c r="C37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" t="s">
         <v>111</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>112</v>
       </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -1805,19 +2041,25 @@
         <v>113</v>
       </c>
       <c r="C38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" t="s">
         <v>114</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>115</v>
       </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -1825,19 +2067,25 @@
         <v>116</v>
       </c>
       <c r="C39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" t="s">
         <v>117</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>118</v>
       </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -1845,19 +2093,25 @@
         <v>119</v>
       </c>
       <c r="C40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" t="s">
         <v>120</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>121</v>
       </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>201</v>
       </c>
@@ -1865,19 +2119,25 @@
         <v>122</v>
       </c>
       <c r="C41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" t="s">
         <v>123</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>124</v>
       </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>202</v>
       </c>
@@ -1885,19 +2145,25 @@
         <v>125</v>
       </c>
       <c r="C42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" t="s">
         <v>126</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>127</v>
       </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -1905,19 +2171,25 @@
         <v>128</v>
       </c>
       <c r="C43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" t="s">
         <v>129</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>130</v>
       </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>204</v>
       </c>
@@ -1925,19 +2197,25 @@
         <v>131</v>
       </c>
       <c r="C44" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" t="s">
         <v>132</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>133</v>
       </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -1945,19 +2223,25 @@
         <v>134</v>
       </c>
       <c r="C45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" t="s">
         <v>135</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>136</v>
       </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>206</v>
       </c>
@@ -1965,19 +2249,25 @@
         <v>137</v>
       </c>
       <c r="C46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" t="s">
         <v>138</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>139</v>
       </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>207</v>
       </c>
@@ -1985,19 +2275,25 @@
         <v>140</v>
       </c>
       <c r="C47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" t="s">
         <v>141</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>142</v>
       </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -2005,19 +2301,25 @@
         <v>143</v>
       </c>
       <c r="C48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" t="s">
         <v>144</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>145</v>
       </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -2025,19 +2327,25 @@
         <v>146</v>
       </c>
       <c r="C49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" t="s">
         <v>147</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>148</v>
       </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>210</v>
       </c>
@@ -2045,19 +2353,25 @@
         <v>149</v>
       </c>
       <c r="C50" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" t="s">
         <v>150</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>151</v>
       </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>211</v>
       </c>
@@ -2065,19 +2379,25 @@
         <v>152</v>
       </c>
       <c r="C51" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" t="s">
         <v>153</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>154</v>
       </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>212</v>
       </c>
@@ -2085,19 +2405,25 @@
         <v>155</v>
       </c>
       <c r="C52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" t="s">
         <v>156</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>157</v>
       </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>213</v>
       </c>
@@ -2105,15 +2431,21 @@
         <v>158</v>
       </c>
       <c r="C53" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" t="s">
         <v>159</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>160</v>
       </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
         <v>215</v>
       </c>
     </row>
